--- a/search terms final.xlsx
+++ b/search terms final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2984DC4C-B453-E345-A536-F6A3187B0C2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84830FA3-2DCA-9046-B574-48C272E77CDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{6FC1F486-7C8C-5349-B35B-7C1E31F44556}"/>
   </bookViews>

--- a/search terms final.xlsx
+++ b/search terms final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84830FA3-2DCA-9046-B574-48C272E77CDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E98B5E-95D7-6C45-AC0D-673A49829C6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{6FC1F486-7C8C-5349-B35B-7C1E31F44556}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>search_terms</t>
   </si>
   <si>
-    <t>*GIS</t>
-  </si>
-  <si>
     <t>SaTScan</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>mapping</t>
+  </si>
+  <si>
+    <t>nearest neighbor</t>
+  </si>
+  <si>
+    <t>QGIS</t>
+  </si>
+  <si>
+    <t>spatial GLM*</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447906F3-D49B-7649-B7B8-B8CC2AED1D98}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,52 +430,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/search terms final.xlsx
+++ b/search terms final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E98B5E-95D7-6C45-AC0D-673A49829C6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA392FA-5F67-EB41-ABCA-47D3E17522EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{6FC1F486-7C8C-5349-B35B-7C1E31F44556}"/>
   </bookViews>

--- a/search terms final.xlsx
+++ b/search terms final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA392FA-5F67-EB41-ABCA-47D3E17522EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD2755A-FB97-A541-BD60-1FD491D78CF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{6FC1F486-7C8C-5349-B35B-7C1E31F44556}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>search_terms</t>
   </si>
@@ -33,12 +33,6 @@
     <t>SaTScan</t>
   </si>
   <si>
-    <t>ArcGIS</t>
-  </si>
-  <si>
-    <t>ArcMap</t>
-  </si>
-  <si>
     <t>MaxEnt</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>nearest neighbor</t>
-  </si>
-  <si>
-    <t>QGIS</t>
   </si>
   <si>
     <t>spatial GLM*</t>
@@ -415,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447906F3-D49B-7649-B7B8-B8CC2AED1D98}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,62 +421,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
